--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367160.5609595621</v>
+        <v>-369690.8157344641</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13116869.22737004</v>
+        <v>13116869.22737005</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.15655528684674</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>117.2278100992616</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>66.02396954840425</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>138.819594995699</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>25.50215320856148</v>
       </c>
       <c r="H5" t="n">
-        <v>210.6046526660752</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>119.5944090572303</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>13.709728189073</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>326.4523041199399</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>94.17518289293587</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1187,10 +1187,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>119.8620943363776</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,19 +1345,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.5359527257913</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>62.14989839348875</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,13 +1582,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>60.11729550773637</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>201.4105577836242</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>140.9144183062133</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>72.80978492054801</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>74.20064764874429</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>78.9105100867805</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>21.35866177150533</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>251.5502284016995</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>244.3165938470681</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>263.3663026263081</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652629</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>394.8580066177528</v>
+        <v>2057.32755894284</v>
       </c>
       <c r="C2" t="n">
-        <v>394.8580066177528</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D2" t="n">
-        <v>394.8580066177528</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E2" t="n">
-        <v>394.8580066177528</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>394.8580066177528</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>394.8580066177528</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>90.79886261532306</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4346,34 +4346,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918766</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657686</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y2" t="n">
-        <v>781.4578466818746</v>
+        <v>2443.927399006962</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735143</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049862</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
         <v>1218.104987164206</v>
@@ -4425,13 +4425,13 @@
         <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219.2332512597245</v>
+        <v>1718.773326732726</v>
       </c>
       <c r="C4" t="n">
-        <v>219.2332512597245</v>
+        <v>1549.837143804819</v>
       </c>
       <c r="D4" t="n">
-        <v>219.2332512597245</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>1399.720504392483</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1496.224306947529</v>
+        <v>2263.127174075599</v>
       </c>
       <c r="T4" t="n">
-        <v>1273.245826142264</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>984.1274886461021</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="V4" t="n">
-        <v>729.4430004402152</v>
+        <v>1785.464205064447</v>
       </c>
       <c r="W4" t="n">
-        <v>440.0258304032546</v>
+        <v>1785.464205064447</v>
       </c>
       <c r="X4" t="n">
-        <v>440.0258304032546</v>
+        <v>1785.464205064447</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.2332512597245</v>
+        <v>1785.464205064447</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1891.353293732295</v>
+        <v>1528.069587875905</v>
       </c>
       <c r="C5" t="n">
-        <v>1891.353293732295</v>
+        <v>1159.107070935493</v>
       </c>
       <c r="D5" t="n">
-        <v>1533.087595125545</v>
+        <v>800.8413723287424</v>
       </c>
       <c r="E5" t="n">
-        <v>1147.299342527301</v>
+        <v>800.8413723287424</v>
       </c>
       <c r="F5" t="n">
-        <v>736.3134377376932</v>
+        <v>389.8554675391348</v>
       </c>
       <c r="G5" t="n">
-        <v>321.2409875826897</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796417</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796417</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>504.1638263336251</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C7" t="n">
-        <v>335.2276434057183</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D7" t="n">
-        <v>335.2276434057183</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>187.3145498233251</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>187.3145498233251</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205412</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="X7" t="n">
-        <v>906.604870307395</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.8122911638649</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.433183287319</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="C8" t="n">
-        <v>1270.470666346907</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="D8" t="n">
-        <v>912.2049677401569</v>
+        <v>1561.900772669912</v>
       </c>
       <c r="E8" t="n">
-        <v>912.2049677401569</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>501.2190629505494</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4817,7 +4817,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4835,19 +4835,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263131</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287319</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>625.6709106036544</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1035.308926331912</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1035.308926331912</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>807.3193754338942</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.3193754338942</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,34 +5258,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="20">
@@ -5738,64 +5738,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>335.9629114732377</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>168.7668121881176</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="23">
@@ -5981,22 +5981,22 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>733.4550657171301</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C25" t="n">
-        <v>564.5188827892232</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D25" t="n">
-        <v>564.5188827892232</v>
+        <v>633.992644467967</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>486.0795508855739</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>339.1896033876635</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y25" t="n">
-        <v>915.1035305473698</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1711.434512201106</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1456.750023995219</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1167.332853958259</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>939.3433030602412</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>718.550723916711</v>
       </c>
     </row>
     <row r="35">
@@ -6911,61 +6911,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -6974,13 +6974,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345481</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384025</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417437</v>
+        <v>30.36925650589438</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>93.5947046705667</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.5533573856237</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>195.8293693099363</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>269.010128556792</v>
       </c>
     </row>
     <row r="3">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>86.4655746247236</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>226.0671788815078</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012251</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>84.77391660561992</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>144.5956654067402</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>66.09406519747959</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>67.52345255978867</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>144.1654765207635</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>34.97276993489146</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>41.86788054217604</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>22.81817176293606</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-5.988543122513853e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-3.359535000201481e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1139154.399041193</v>
+        <v>1139154.399041194</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1139154.399041193</v>
+        <v>1139154.399041194</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1139154.399041193</v>
+        <v>1139154.399041194</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1139154.399041193</v>
+        <v>1139154.399041194</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1139154.399041194</v>
+        <v>1139154.399041193</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251542.9259350417</v>
+        <v>251542.9259350416</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524993</v>
@@ -26320,19 +26320,19 @@
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915023</v>
       </c>
       <c r="F2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="G2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="H2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
@@ -26341,19 +26341,19 @@
         <v>282501.3098915022</v>
       </c>
       <c r="L2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="M2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="M2" t="n">
-        <v>282501.3098915023</v>
-      </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121057</v>
+        <v>203438.7416121059</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,13 +26384,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605445</v>
+        <v>49110.09270605434</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>79513.71540476775</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.1790931202</v>
+        <v>89134.17909312015</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,34 +26430,34 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.14432176889</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768959</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768952</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768908</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486237</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1035660.345485491</v>
+        <v>-1035916.214724901</v>
       </c>
       <c r="C6" t="n">
-        <v>-113142.2418141199</v>
+        <v>-113142.2418141201</v>
       </c>
       <c r="D6" t="n">
         <v>90296.4997979858</v>
       </c>
       <c r="E6" t="n">
-        <v>-153980.826061529</v>
+        <v>-154015.5639869648</v>
       </c>
       <c r="F6" t="n">
-        <v>171431.6357458261</v>
+        <v>171396.8978203904</v>
       </c>
       <c r="G6" t="n">
-        <v>171431.6357458262</v>
+        <v>171396.8978203905</v>
       </c>
       <c r="H6" t="n">
-        <v>171431.6357458261</v>
+        <v>171396.8978203904</v>
       </c>
       <c r="I6" t="n">
-        <v>171431.6357458262</v>
+        <v>171396.8978203902</v>
       </c>
       <c r="J6" t="n">
-        <v>3826.4579358435</v>
+        <v>3791.72001040788</v>
       </c>
       <c r="K6" t="n">
-        <v>122321.5430397717</v>
+        <v>122286.8051143362</v>
       </c>
       <c r="L6" t="n">
-        <v>171431.6357458261</v>
+        <v>171396.8978203904</v>
       </c>
       <c r="M6" t="n">
-        <v>86376.60781031447</v>
+        <v>86341.86988487862</v>
       </c>
       <c r="N6" t="n">
-        <v>171431.6357458262</v>
+        <v>171396.8978203904</v>
       </c>
       <c r="O6" t="n">
-        <v>146834.7820200898</v>
+        <v>146834.7820200897</v>
       </c>
       <c r="P6" t="n">
         <v>166262.5000137215</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>261.0883369501163</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>153.4115994074768</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>113.808010633533</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>55.84286536603841</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>385.419572444892</v>
       </c>
       <c r="H5" t="n">
-        <v>84.00311172124523</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>46.43139920179793</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>211.9999271999642</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>55.47806595232186</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>316.7465427605176</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.96988584555967</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>64.6016905980367</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652761</v>
+        <v>280.0487856294267</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
